--- a/docs/StructureDefinition-us-core-pregnancystatus.xlsx
+++ b/docs/StructureDefinition-us-core-pregnancystatus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -290,7 +290,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1149,6 +1149,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5845,13 +5849,13 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5902,7 +5906,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5926,7 +5930,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5937,7 +5941,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5966,7 +5970,7 @@
         <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>137</v>
@@ -6019,7 +6023,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6043,7 +6047,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6054,11 +6058,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6080,10 +6084,10 @@
         <v>134</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>137</v>
@@ -6138,7 +6142,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6173,7 +6177,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6196,13 +6200,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6253,7 +6257,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6262,7 +6266,7 @@
         <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
@@ -6274,10 +6278,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6288,7 +6292,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6311,13 +6315,13 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6368,7 +6372,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6377,7 +6381,7 @@
         <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>100</v>
@@ -6389,10 +6393,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6403,7 +6407,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6429,16 +6433,16 @@
         <v>185</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6466,10 +6470,10 @@
         <v>112</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6487,7 +6491,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6505,10 +6509,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>304</v>
@@ -6522,7 +6526,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6548,16 +6552,16 @@
         <v>185</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6585,10 +6589,10 @@
         <v>318</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6606,7 +6610,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6624,10 +6628,10 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>304</v>
@@ -6641,7 +6645,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6664,17 +6668,17 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6723,7 +6727,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6747,7 +6751,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6758,7 +6762,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6781,13 +6785,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6838,7 +6842,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6859,10 +6863,10 @@
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6873,7 +6877,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6896,16 +6900,16 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6955,7 +6959,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6976,10 +6980,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6990,7 +6994,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7013,16 +7017,16 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7072,7 +7076,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7093,10 +7097,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7107,7 +7111,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7133,16 +7137,16 @@
         <v>353</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7191,7 +7195,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7212,10 +7216,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7226,7 +7230,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7249,13 +7253,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7306,7 +7310,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7330,7 +7334,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7341,7 +7345,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7370,7 +7374,7 @@
         <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>137</v>
@@ -7423,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7447,7 +7451,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7458,11 +7462,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7484,10 +7488,10 @@
         <v>134</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>137</v>
@@ -7542,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7577,7 +7581,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7603,13 +7607,13 @@
         <v>185</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>203</v>
@@ -7640,10 +7644,10 @@
         <v>318</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7661,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>88</v>
@@ -7679,7 +7683,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>209</v>
@@ -7696,7 +7700,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7719,16 +7723,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>275</v>
@@ -7780,7 +7784,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7798,7 +7802,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>278</v>
@@ -7815,7 +7819,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7841,13 +7845,13 @@
         <v>185</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>289</v>
@@ -7899,7 +7903,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7934,7 +7938,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8018,7 +8022,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8053,7 +8057,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8079,10 +8083,10 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>356</v>
@@ -8137,7 +8141,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
